--- a/氣象性能評估工具V2/data/obs/backup/2016-06-29_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-29_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-29 00:00:00</t>
+    <t>2016-06-29-00</t>
   </si>
   <si>
     <t>22.2</t>
@@ -160,7 +160,7 @@
     <t>28.8</t>
   </si>
   <si>
-    <t>2016-06-29 01:00:00</t>
+    <t>2016-06-29-01</t>
   </si>
   <si>
     <t>21.8</t>
@@ -208,7 +208,7 @@
     <t>30.7</t>
   </si>
   <si>
-    <t>2016-06-29 02:00:00</t>
+    <t>2016-06-29-02</t>
   </si>
   <si>
     <t>21.1</t>
@@ -247,7 +247,7 @@
     <t>30.4</t>
   </si>
   <si>
-    <t>2016-06-29 03:00:00</t>
+    <t>2016-06-29-03</t>
   </si>
   <si>
     <t>21.6</t>
@@ -271,7 +271,7 @@
     <t>29.1</t>
   </si>
   <si>
-    <t>2016-06-29 04:00:00</t>
+    <t>2016-06-29-04</t>
   </si>
   <si>
     <t>26.1</t>
@@ -301,7 +301,7 @@
     <t>30.2</t>
   </si>
   <si>
-    <t>2016-06-29 05:00:00</t>
+    <t>2016-06-29-05</t>
   </si>
   <si>
     <t>27.4</t>
@@ -319,7 +319,7 @@
     <t>29.3</t>
   </si>
   <si>
-    <t>2016-06-29 06:00:00</t>
+    <t>2016-06-29-06</t>
   </si>
   <si>
     <t>23.4</t>
@@ -349,7 +349,7 @@
     <t>31.6</t>
   </si>
   <si>
-    <t>2016-06-29 07:00:00</t>
+    <t>2016-06-29-07</t>
   </si>
   <si>
     <t>23.9</t>
@@ -382,7 +382,7 @@
     <t>30.1</t>
   </si>
   <si>
-    <t>2016-06-29 08:00:00</t>
+    <t>2016-06-29-08</t>
   </si>
   <si>
     <t>31.3</t>
@@ -421,7 +421,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>2016-06-29 09:00:00</t>
+    <t>2016-06-29-09</t>
   </si>
   <si>
     <t>33.3</t>
@@ -454,7 +454,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-29 10:00:00</t>
+    <t>2016-06-29-10</t>
   </si>
   <si>
     <t>34.1</t>
@@ -490,7 +490,7 @@
     <t>33.4</t>
   </si>
   <si>
-    <t>2016-06-29 11:00:00</t>
+    <t>2016-06-29-11</t>
   </si>
   <si>
     <t>34.8</t>
@@ -505,7 +505,7 @@
     <t>16.3</t>
   </si>
   <si>
-    <t>2016-06-29 12:00:00</t>
+    <t>2016-06-29-12</t>
   </si>
   <si>
     <t>25.1</t>
@@ -526,7 +526,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-29 13:00:00</t>
+    <t>2016-06-29-13</t>
   </si>
   <si>
     <t>24.4</t>
@@ -544,7 +544,7 @@
     <t>12.1</t>
   </si>
   <si>
-    <t>2016-06-29 14:00:00</t>
+    <t>2016-06-29-14</t>
   </si>
   <si>
     <t>17.9</t>
@@ -556,13 +556,13 @@
     <t>11.2</t>
   </si>
   <si>
-    <t>2016-06-29 15:00:00</t>
+    <t>2016-06-29-15</t>
   </si>
   <si>
     <t>17.0</t>
   </si>
   <si>
-    <t>2016-06-29 16:00:00</t>
+    <t>2016-06-29-16</t>
   </si>
   <si>
     <t>17.1</t>
@@ -571,7 +571,7 @@
     <t>10.1</t>
   </si>
   <si>
-    <t>2016-06-29 17:00:00</t>
+    <t>2016-06-29-17</t>
   </si>
   <si>
     <t>24.1</t>
@@ -586,7 +586,7 @@
     <t>30.9</t>
   </si>
   <si>
-    <t>2016-06-29 18:00:00</t>
+    <t>2016-06-29-18</t>
   </si>
   <si>
     <t>16.2</t>
@@ -595,7 +595,7 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>2016-06-29 19:00:00</t>
+    <t>2016-06-29-19</t>
   </si>
   <si>
     <t>15.7</t>
@@ -604,7 +604,7 @@
     <t>29.5</t>
   </si>
   <si>
-    <t>2016-06-29 20:00:00</t>
+    <t>2016-06-29-20</t>
   </si>
   <si>
     <t>24.7</t>
@@ -616,7 +616,7 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>2016-06-29 21:00:00</t>
+    <t>2016-06-29-21</t>
   </si>
   <si>
     <t>22.1</t>
@@ -634,7 +634,7 @@
     <t>15.4</t>
   </si>
   <si>
-    <t>2016-06-29 22:00:00</t>
+    <t>2016-06-29-22</t>
   </si>
   <si>
     <t>24.6</t>
@@ -646,7 +646,7 @@
     <t>5.6</t>
   </si>
   <si>
-    <t>2016-06-29 23:00:00</t>
+    <t>2016-06-29-23</t>
   </si>
   <si>
     <t>21.4</t>
